--- a/Pycharm/stock_data_filled.xlsx
+++ b/Pycharm/stock_data_filled.xlsx
@@ -14,63 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>BAJFINANCE.NS_QTY</t>
-  </si>
-  <si>
-    <t>BAJFINANCE.NS_Rate</t>
-  </si>
-  <si>
-    <t>BAJFINANCE.NS_Value</t>
-  </si>
-  <si>
-    <t>DMART.NS_QTY</t>
-  </si>
-  <si>
-    <t>DMART.NS_Rate</t>
-  </si>
-  <si>
-    <t>DMART.NS_Value</t>
-  </si>
-  <si>
-    <t>MARUTI.NS_QTY</t>
-  </si>
-  <si>
-    <t>MARUTI.NS_Rate</t>
-  </si>
-  <si>
-    <t>MARUTI.NS_Value</t>
-  </si>
-  <si>
-    <t>RELIANCE.NS_QTY</t>
-  </si>
-  <si>
-    <t>RELIANCE.NS_Rate</t>
-  </si>
-  <si>
-    <t>RELIANCE.NS_Value</t>
-  </si>
-  <si>
-    <t>TECHM.NS_QTY</t>
-  </si>
-  <si>
-    <t>TECHM.NS_Rate</t>
-  </si>
-  <si>
-    <t>TECHM.NS_Value</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Script</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>BAJFINANCE.NS</t>
+  </si>
+  <si>
+    <t>DMART.NS</t>
+  </si>
+  <si>
+    <t>MARUTI.NS</t>
+  </si>
+  <si>
+    <t>RELIANCE.NS</t>
+  </si>
+  <si>
+    <t>TECHM.NS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -123,12 +96,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,13 +395,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,323 +411,60 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2">
+        <v>0.02613268497843221</v>
+      </c>
+      <c r="C2">
+        <v>-0.004659658898304442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B3">
+        <v>0.01123345159212999</v>
+      </c>
+      <c r="C3">
+        <v>-9.067100036917184E-06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B4">
+        <v>0.01337530921370613</v>
+      </c>
+      <c r="C4">
+        <v>0.001487552944210448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B5">
+        <v>0.01185450348479242</v>
+      </c>
+      <c r="C5">
+        <v>0.001271516474188219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="2">
-        <v>45054</v>
-      </c>
-      <c r="N2">
-        <v>100</v>
-      </c>
-      <c r="O2">
-        <v>1050.61</v>
-      </c>
-      <c r="P2">
-        <v>105061</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="2">
-        <v>45090</v>
-      </c>
-      <c r="N3">
-        <v>60</v>
-      </c>
-      <c r="O3">
-        <v>1085.7</v>
-      </c>
-      <c r="P3">
-        <v>65142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="2">
-        <v>45120</v>
-      </c>
-      <c r="E4">
-        <v>25</v>
-      </c>
-      <c r="F4">
-        <v>3827.32</v>
-      </c>
-      <c r="G4">
-        <v>95683</v>
-      </c>
-      <c r="N4">
-        <v>60</v>
-      </c>
-      <c r="O4">
-        <v>1085.7</v>
-      </c>
-      <c r="P4">
-        <v>65142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="2">
-        <v>45126</v>
-      </c>
-      <c r="E5">
-        <v>25</v>
-      </c>
-      <c r="F5">
-        <v>3827.32</v>
-      </c>
-      <c r="G5">
-        <v>95683</v>
-      </c>
-      <c r="N5">
-        <v>140</v>
-      </c>
-      <c r="O5">
-        <v>1250.61</v>
-      </c>
-      <c r="P5">
-        <v>175085.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="2">
-        <v>45134</v>
-      </c>
-      <c r="E6">
-        <v>25</v>
-      </c>
-      <c r="F6">
-        <v>3827.32</v>
-      </c>
-      <c r="G6">
-        <v>95683</v>
-      </c>
-      <c r="K6">
-        <v>75</v>
-      </c>
-      <c r="L6">
-        <v>2517.21</v>
-      </c>
-      <c r="M6">
-        <v>188790.75</v>
-      </c>
-      <c r="N6">
-        <v>140</v>
-      </c>
-      <c r="O6">
-        <v>1250.61</v>
-      </c>
-      <c r="P6">
-        <v>175085.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="2">
-        <v>45280</v>
-      </c>
-      <c r="E7">
-        <v>25</v>
-      </c>
-      <c r="F7">
-        <v>3827.32</v>
-      </c>
-      <c r="G7">
-        <v>95683</v>
-      </c>
-      <c r="K7">
-        <v>75</v>
-      </c>
-      <c r="L7">
-        <v>2517.21</v>
-      </c>
-      <c r="M7">
-        <v>188790.75</v>
-      </c>
-      <c r="N7">
-        <v>-160</v>
-      </c>
-      <c r="O7">
-        <v>1256.48</v>
-      </c>
-      <c r="P7">
-        <v>-201035.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="2">
-        <v>45287</v>
-      </c>
-      <c r="E8">
-        <v>25</v>
-      </c>
-      <c r="F8">
-        <v>3827.32</v>
-      </c>
-      <c r="G8">
-        <v>95683</v>
-      </c>
-      <c r="H8">
-        <v>20</v>
-      </c>
-      <c r="I8">
-        <v>10302.65</v>
-      </c>
-      <c r="J8">
-        <v>206053</v>
-      </c>
-      <c r="K8">
-        <v>75</v>
-      </c>
-      <c r="L8">
-        <v>2517.21</v>
-      </c>
-      <c r="M8">
-        <v>188790.75</v>
-      </c>
-      <c r="N8">
-        <v>-160</v>
-      </c>
-      <c r="O8">
-        <v>1256.48</v>
-      </c>
-      <c r="P8">
-        <v>-201035.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="2">
-        <v>45315</v>
-      </c>
-      <c r="B9">
-        <v>23</v>
-      </c>
-      <c r="C9">
-        <v>7077.43</v>
-      </c>
-      <c r="D9">
-        <v>162780.89</v>
-      </c>
-      <c r="E9">
-        <v>25</v>
-      </c>
-      <c r="F9">
-        <v>3827.32</v>
-      </c>
-      <c r="G9">
-        <v>95683</v>
-      </c>
-      <c r="H9">
-        <v>20</v>
-      </c>
-      <c r="I9">
-        <v>10302.65</v>
-      </c>
-      <c r="J9">
-        <v>206053</v>
-      </c>
-      <c r="K9">
-        <v>75</v>
-      </c>
-      <c r="L9">
-        <v>2517.21</v>
-      </c>
-      <c r="M9">
-        <v>188790.75</v>
-      </c>
-      <c r="N9">
-        <v>-140</v>
-      </c>
-      <c r="O9">
-        <v>1399.73</v>
-      </c>
-      <c r="P9">
-        <v>-195962.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="2">
-        <v>45326</v>
-      </c>
-      <c r="B10">
-        <v>-23</v>
-      </c>
-      <c r="C10">
-        <v>6848.3</v>
-      </c>
-      <c r="D10">
-        <v>-157510.9</v>
-      </c>
-      <c r="E10">
-        <v>-25</v>
-      </c>
-      <c r="F10">
-        <v>3784.3</v>
-      </c>
-      <c r="G10">
-        <v>-94607.5</v>
-      </c>
-      <c r="H10">
-        <v>-20</v>
-      </c>
-      <c r="I10">
-        <v>10655.45</v>
-      </c>
-      <c r="J10">
-        <v>-213109</v>
-      </c>
-      <c r="K10">
-        <v>-75</v>
-      </c>
-      <c r="L10">
-        <v>2915.4</v>
-      </c>
-      <c r="M10">
-        <v>-218655</v>
-      </c>
-      <c r="N10">
-        <v>-140</v>
-      </c>
-      <c r="O10">
-        <v>1399.73</v>
-      </c>
-      <c r="P10">
-        <v>-195962.2</v>
+      <c r="B6">
+        <v>0.01668211775501753</v>
+      </c>
+      <c r="C6">
+        <v>0.0008009444987215826</v>
       </c>
     </row>
   </sheetData>
